--- a/ims nasu issus.xlsx
+++ b/ims nasu issus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTING\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF64C7-CB2D-4F8D-8CDF-6F4AB25D263B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A067B2-9EC2-4169-A402-EAF4D4D27B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>issue # number</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Prevent access/action to any record</t>
-  </si>
-  <si>
-    <t>eng account could access medicine student excuse</t>
   </si>
   <si>
     <t>#74</t>
@@ -109,9 +106,6 @@
     <t>ui has 2 filters "Select Term" [solved]</t>
   </si>
   <si>
-    <t>students can't access activities list</t>
-  </si>
-  <si>
     <t>#76</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>#63</t>
   </si>
   <si>
-    <t>certificate list not available</t>
-  </si>
-  <si>
     <t>#86</t>
   </si>
   <si>
@@ -143,16 +134,60 @@
   </si>
   <si>
     <t>17-12-2025</t>
+  </si>
+  <si>
+    <t>eng account could access medicine student excuse [solved]</t>
+  </si>
+  <si>
+    <t>solved</t>
+  </si>
+  <si>
+    <t>Implement user access on Certificates and eServices</t>
+  </si>
+  <si>
+    <t>certificate list not available [resolved]</t>
+  </si>
+  <si>
+    <t>exception during accept the request of certificate at emp account</t>
+  </si>
+  <si>
+    <t>moustafa.medicine@yahoo.com hasn't students activities in the sidebar also he has an access activities permission</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>students can't access activities list VALIDATION ERROR-&gt; pending activity is shown to students, also open one not showed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292A2E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,10 +222,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -206,8 +242,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -240,9 +279,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA5B0E81-81D4-46C9-9992-B92BCCD32F1E}" name="Table2" displayName="Table2" ref="A1:K1048576" totalsRowShown="0">
-  <autoFilter ref="A1:K1048576" xr:uid="{BA5B0E81-81D4-46C9-9992-B92BCCD32F1E}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA5B0E81-81D4-46C9-9992-B92BCCD32F1E}" name="Table2" displayName="Table2" ref="A1:L1048576" totalsRowShown="0">
+  <autoFilter ref="A1:L1048576" xr:uid="{BA5B0E81-81D4-46C9-9992-B92BCCD32F1E}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{1C62C309-F440-4DC3-8E58-7DB206A6C258}" name="issue # number" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{1F767230-8CFB-4B4D-B1C8-52264E497972}" name="describtion" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{785E5F31-85D8-4E15-B1AE-C7B40455D5B4}" name="Notes " dataDxfId="2"/>
@@ -254,6 +293,7 @@
     <tableColumn id="8" xr3:uid="{87FA76B9-4C49-4D9D-84B0-B99F0AFE3EA2}" name="4"/>
     <tableColumn id="9" xr3:uid="{DA7F11FC-F494-4F54-BEDF-72BA47F0064F}" name="5"/>
     <tableColumn id="10" xr3:uid="{BBAC7C4C-1AD4-4849-9B67-AC16537F27F0}" name="6"/>
+    <tableColumn id="11" xr3:uid="{CCDFFB28-7F3F-4A64-8E8C-7BF656F7F4B1}" name="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,14 +575,16 @@
     <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="232.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,8 +618,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -594,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -611,26 +656,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -642,44 +687,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -691,49 +736,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{0E17C1A6-83BA-4500-9F4C-541149B09913}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ims nasu issus.xlsx
+++ b/ims nasu issus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTING\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A067B2-9EC2-4169-A402-EAF4D4D27B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD8FEE-40DE-4C17-A085-D26554E80CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>issue # number</t>
   </si>
@@ -158,6 +158,42 @@
   </si>
   <si>
     <t>students can't access activities list VALIDATION ERROR-&gt; pending activity is shown to students, also open one not showed</t>
+  </si>
+  <si>
+    <t>#72</t>
+  </si>
+  <si>
+    <t>Implement latest questionnaire updates</t>
+  </si>
+  <si>
+    <t>reopened</t>
+  </si>
+  <si>
+    <t>need to display the questionnaire faculty</t>
+  </si>
+  <si>
+    <t>Update Questionnairy Modal doesn't retrieve the faculty - The modal need a field name above the field with * for required one -</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>18-12-2025</t>
+  </si>
+  <si>
+    <t>#89</t>
+  </si>
+  <si>
+    <t>Edit term is failing</t>
+  </si>
+  <si>
+    <t>28-12-2025</t>
+  </si>
+  <si>
+    <t>404 NOT Found through edit the term</t>
+  </si>
+  <si>
+    <t>all roles are set to moustafa.business@nasu.edu.eg to access students activities but he cant</t>
   </si>
 </sst>
 </file>
@@ -226,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,6 +280,8 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -575,10 +613,10 @@
     <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="105.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="232.42578125" bestFit="1" customWidth="1"/>
@@ -688,7 +726,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -702,6 +740,9 @@
       </c>
       <c r="H6" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -785,6 +826,65 @@
         <v>35</v>
       </c>
       <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
